--- a/src/test/resources/testdata/Book1.xlsx
+++ b/src/test/resources/testdata/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sevinc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sevinc/eclipse-workspace/cucumberproject/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6775186-4C6C-F246-964F-4ED08F149521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D87D194-1233-F842-A7AF-FC0D5BD4ECB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{C0964FAC-D30D-2942-A7A8-AD795894C75F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{C0964FAC-D30D-2942-A7A8-AD795894C75F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>john1234</t>
+  </si>
+  <si>
+    <t>herry@gmail.com</t>
+  </si>
+  <si>
+    <t>4566@gmail.com</t>
+  </si>
+  <si>
+    <t>hrl455</t>
   </si>
 </sst>
 </file>
@@ -90,9 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -408,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E37A1E-FF2C-BB46-A22D-BAC64D53F56F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,9 +445,27 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1245865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{69A65A22-5AC0-EF4E-9E3D-8329EEBF4174}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{5D55F492-0579-234F-95B3-52D2B3000D99}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{19052CCE-4F6A-574F-8BC7-45426BDB120E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
